--- a/templates/nested_sample.xlsx
+++ b/templates/nested_sample.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CONFIG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="LAYERS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BOXES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="COMPONENTS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CONNECTIONS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONFIG" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LAYERS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOXES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COMPONENTS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONNECTIONS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>계층형</t>
+          <t>행기반</t>
         </is>
       </c>
     </row>
@@ -565,11 +565,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>회색</t>
+          <t>연회색</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>X%</t>
+          <t>행번호</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -642,25 +642,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>너비%</t>
+          <t>높이%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>높이%</t>
+          <t>배경색</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>배경색</t>
+          <t>테두리색</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>테두리색</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>폰트크기</t>
         </is>
@@ -674,8 +669,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>공통기능
-(공지사항, 게시판)</t>
+          <t>공통기능</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -684,28 +678,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" t="n">
         <v>70</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -717,8 +708,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monitoring
-(Data Lake/분석플랫폼)</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,28 +717,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
         <v>70</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -760,7 +747,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>시각화 시스템 연동</t>
+          <t>시각화</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -769,28 +756,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
         <v>70</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -802,7 +786,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Meta 정보 조회</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -811,28 +795,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
         <v>70</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -844,7 +825,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SSO연동</t>
+          <t>SSO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -853,28 +834,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
-      </c>
-      <c r="G6" t="n">
         <v>70</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -895,29 +873,26 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
-      </c>
-      <c r="G7" t="n">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>12</v>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -937,29 +912,26 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
-      </c>
-      <c r="G8" t="n">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>12</v>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -979,40 +951,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
-      </c>
-      <c r="G9" t="n">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>12</v>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B_META</t>
+          <t>B_MODELER</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Meta 관리</t>
+          <t>Modeler</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1021,40 +990,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
-      </c>
-      <c r="G10" t="n">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>12</v>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B_MODULE</t>
+          <t>B_META</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>분석모듈관리</t>
+          <t>Meta 관리</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1063,82 +1029,76 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
         <v>52</v>
       </c>
-      <c r="E11" t="n">
-        <v>57</v>
-      </c>
       <c r="F11" t="n">
-        <v>23</v>
-      </c>
-      <c r="G11" t="n">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>진회색</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>12</v>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B_DATA_COLLECT</t>
+          <t>B_MODULE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>내/외부 데이터 수집</t>
+          <t>분석모듈관리</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B_INTERFACE</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F12" t="n">
-        <v>84</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>흰색</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
           <t>회색</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="I12" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B_DATA_INPUT</t>
+          <t>B_DATA_COLLECT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Data 수집</t>
+          <t>데이터수집</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1147,239 +1107,611 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>84</v>
-      </c>
-      <c r="G13" t="n">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
           <t>회색</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>11</v>
+      <c r="I13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_DATA_INPUT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hadoop Cluster(HDP3.x)</t>
+          <t>Data 수집</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B_DATALAKE</t>
+          <t>B_INTERFACE</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>90</v>
-      </c>
-      <c r="G14" t="n">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>흰색</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
           <t>회색</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>11</v>
+      <c r="I14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B_HADOOP_SW</t>
+          <t>B_TRANSFER</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Software Layer : HDP</t>
+          <t>Transfer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_INTERFACE</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F15" t="n">
-        <v>90</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
           <t>회색</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v>10</v>
+      <c r="I15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B_ANAL_MODEL</t>
+          <t>B_LOGGING</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>분석모델관리</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B_ANALYTICS</t>
+          <t>B_INTERFACE</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="F16" t="n">
-        <v>90</v>
-      </c>
-      <c r="G16" t="n">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
           <t>회색</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v>11</v>
+      <c r="I16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B_MODELER</t>
+          <t>B_MODULE_REPO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modeler</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B_ANALYTICS</t>
+          <t>B_INTERFACE</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F17" t="n">
-        <v>90</v>
-      </c>
-      <c r="G17" t="n">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>연회색</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
           <t>회색</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>11</v>
+      <c r="I17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>B_REPO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B_INTERFACE</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>92</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B_HADOOP</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hadoop Cluster</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B_DATALAKE</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>73</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B_HADOOP_TOP</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B_HADOOP</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B_HADOOP_SW</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Software Layer</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B_HADOOP</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>43</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B_HADOOP_OP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B_HADOOP</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B_HADOOP_MID</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Processing</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B_HADOOP</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>65</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B_HADOOP_YARN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>YARN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B_HADOOP</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>87</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B_HADOOP_HDFS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HDFS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B_HADOOP</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>94</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B_ANAL_MODEL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>분석모델</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B_ANALYTICS</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B_MODELER_BOX</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Modeler</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B_ANALYTICS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>47</v>
+      </c>
+      <c r="F27" t="n">
+        <v>28</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>B_K8S</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Kubernetes Orchestration Platform</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Kubernetes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>B_ANALYTICS</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>66</v>
-      </c>
-      <c r="F18" t="n">
-        <v>90</v>
-      </c>
-      <c r="G18" t="n">
-        <v>28</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>77</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>흰색</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>회색</t>
         </is>
       </c>
-      <c r="J18" t="n">
-        <v>11</v>
+      <c r="I28" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,7 +1751,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>X%</t>
+          <t>행번호</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1429,20 +1761,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>너비%</t>
+          <t>높이%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>높이%</t>
+          <t>폰트크기</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>폰트크기</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>타입</t>
         </is>
@@ -1456,7 +1783,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JDBC Interface</t>
+          <t>JDBC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1465,21 +1792,18 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1493,8 +1817,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batch Interface
-(SAM file / XML)</t>
+          <t>Batch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1503,21 +1826,18 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1531,7 +1851,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Big Data Interface</t>
+          <t>Big Data</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1540,21 +1860,18 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>26</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1563,36 +1880,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C_TRANSFER</t>
+          <t>C_STAGING</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transfer
-(parsing, cleansing)</t>
+          <t>Staging</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B_INTERFACE</t>
+          <t>B_HADOOP_TOP</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1601,35 +1914,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C_LOGGING</t>
+          <t>C_LAKE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Lake</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B_INTERFACE</t>
+          <t>B_HADOOP_TOP</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1638,35 +1948,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C_MODULE</t>
+          <t>C_MART</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Big Data Module</t>
+          <t>Mart</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B_INTERFACE</t>
+          <t>B_HADOOP_TOP</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1675,35 +1982,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C_REPO</t>
+          <t>C_SQOOP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Repository</t>
+          <t>Sqoop</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B_INTERFACE</t>
+          <t>B_HADOOP_MID</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1712,35 +2016,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C_STAGING</t>
+          <t>C_HIVE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Staging</t>
+          <t>Hive</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_HADOOP_MID</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1749,35 +2050,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C_LAKE</t>
+          <t>C_SPARK</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lake</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_HADOOP_MID</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1786,35 +2084,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C_MART</t>
+          <t>C_BATCH_M</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mart</t>
+          <t>Batch</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_ANAL_MODEL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1823,35 +2118,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C_AMBARI</t>
+          <t>C_ML</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Operation(Ambari)</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_ANAL_MODEL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1860,36 +2152,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C_SQOOP</t>
+          <t>C_DL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sqoop
-(Integration)</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_MODELER_BOX</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1898,36 +2186,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C_HIVE</t>
+          <t>C_AUTO_ML</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hive
-(Batch ETL)</t>
+          <t>Auto ML</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_MODELER_BOX</t>
         </is>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25</v>
+      </c>
+      <c r="F14" t="n">
         <v>35</v>
       </c>
-      <c r="E14" t="n">
-        <v>48</v>
-      </c>
-      <c r="F14" t="n">
-        <v>28</v>
-      </c>
       <c r="G14" t="n">
-        <v>20</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-      <c r="I14" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1936,36 +2220,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C_SPARK</t>
+          <t>C_RP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spark
-(Streaming)</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_MODELER_BOX</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-      <c r="I15" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -1974,36 +2254,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C_YARN</t>
+          <t>C_AUTO_DL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>YARN
-(Resource Mgt)</t>
+          <t>Auto DL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_MODELER_BOX</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F16" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2012,35 +2288,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C_HDFS</t>
+          <t>C_META_DB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HDFS(Data Storage)</t>
+          <t>DB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_META</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I17" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2049,35 +2322,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C_BATCH_M</t>
+          <t>C_META_TBL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B_ANAL_MODEL</t>
+          <t>B_META</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I18" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2086,35 +2356,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C_ML</t>
+          <t>C_META_FLD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ML Modeler</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B_ANAL_MODEL</t>
+          <t>B_META</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>25</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-      <c r="I19" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2123,35 +2390,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C_DL</t>
+          <t>C_PY_LIB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DL Modeler</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B_MODELER</t>
+          <t>B_MODULE</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G20" t="n">
-        <v>38</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-      <c r="I20" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2160,35 +2424,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C_AUTO_ML</t>
+          <t>C_R_REPO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Auto ML</t>
+          <t>R/Py</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B_MODELER</t>
+          <t>B_MODULE</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G21" t="n">
-        <v>38</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2197,35 +2458,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C_RP</t>
+          <t>C_R_LIB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RP Modeler</t>
+          <t>R Lib</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B_MODELER</t>
+          <t>B_MODULE</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G22" t="n">
-        <v>38</v>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-      <c r="I22" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2234,12 +2492,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C_AUTO_DL</t>
+          <t>C_DL2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Auto DL</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2248,21 +2506,18 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>38</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-      <c r="I23" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2271,36 +2526,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C_META_DB</t>
+          <t>C_AUTO_ML2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>데이터베이스
-정보관리</t>
+          <t>Auto ML</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B_META</t>
+          <t>B_MODELER</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>75</v>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2309,36 +2560,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C_META_TBL</t>
+          <t>C_RP2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>테이블/파티션
-정보관리</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B_META</t>
+          <t>B_MODELER</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>75</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2347,148 +2594,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C_META_FLD</t>
+          <t>C_AUTO_DL2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>테이블 필드
-정보 관리</t>
+          <t>Auto DL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B_META</t>
+          <t>B_MODELER</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G26" t="n">
-        <v>75</v>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C_PY_LIB</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Python Library 관리</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>B_MODULE</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>15</v>
-      </c>
-      <c r="F27" t="n">
-        <v>28</v>
-      </c>
-      <c r="G27" t="n">
-        <v>75</v>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>C_R_REPO</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>R/Python
-Repository 관리</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>B_MODULE</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>38</v>
-      </c>
-      <c r="E28" t="n">
-        <v>15</v>
-      </c>
-      <c r="F28" t="n">
-        <v>28</v>
-      </c>
-      <c r="G28" t="n">
-        <v>75</v>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>C_R_LIB</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>R Library 관리</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>B_MODULE</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>68</v>
-      </c>
-      <c r="E29" t="n">
-        <v>15</v>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
-      <c r="G29" t="n">
-        <v>75</v>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-      <c r="I29" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>단일박스</t>
         </is>
@@ -2505,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2609,6 +2740,29 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B_ANALYTICS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B_META</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>데이터흐름</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>실선</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/nested_sample.xlsx
+++ b/templates/nested_sample.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>행기반</t>
+          <t>계층형</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -759,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -798,10 +798,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -837,10 +837,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1015,31 +1015,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B_META</t>
+          <t>B_DATA_LABEL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Meta 관리</t>
+          <t>데이터수집</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>B_INTERFACE</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>연회색</t>
+          <t>흰색</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1048,33 +1048,33 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B_MODULE</t>
+          <t>B_DATA_COLLECT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>분석모듈관리</t>
+          <t>Data 수집</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>B_INTERFACE</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1087,18 +1087,18 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B_DATA_COLLECT</t>
+          <t>B_TRANSFER</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>데이터수집</t>
+          <t>Transfer</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1107,37 +1107,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>10</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>흰색</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>회색</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B_DATA_INPUT</t>
+          <t>B_LOGGING</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Data 수집</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1146,17 +1146,17 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>연회색</t>
+          <t>흰색</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1171,12 +1171,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B_TRANSFER</t>
+          <t>B_MODULE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1185,13 +1185,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1204,18 +1204,18 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B_LOGGING</t>
+          <t>B_REPOSITORY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Repository</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1224,13 +1224,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1243,33 +1243,33 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B_MODULE_REPO</t>
+          <t>B_JDBC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>JDBC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B_INTERFACE</t>
+          <t>B_DATA_COLLECT</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1288,27 +1288,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B_REPO</t>
+          <t>B_BATCH</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Repository</t>
+          <t>Batch</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B_INTERFACE</t>
+          <t>B_DATA_COLLECT</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1327,27 +1327,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_BIGDATA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hadoop Cluster</t>
+          <t>Big Data</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B_DATALAKE</t>
+          <t>B_DATA_COLLECT</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F19" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1360,37 +1360,37 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B_HADOOP_TOP</t>
+          <t>B_HADOOP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Hadoop Cluster</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B_HADOOP</t>
+          <t>B_DATALAKE</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>연회색</t>
+          <t>흰색</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1399,18 +1399,18 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B_HADOOP_SW</t>
+          <t>B_STORAGE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Software Layer</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1438,18 +1438,18 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B_HADOOP_OP</t>
+          <t>B_SW_LAYER</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>Software Layer</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -1477,18 +1477,18 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B_HADOOP_MID</t>
+          <t>B_OPERATION</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1497,17 +1497,17 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>연회색</t>
+          <t>흰색</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1522,12 +1522,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B_HADOOP_YARN</t>
+          <t>B_PROCESSING</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>YARN</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1536,17 +1536,17 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>흰색</t>
+          <t>연회색</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1555,18 +1555,18 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B_HADOOP_HDFS</t>
+          <t>B_YARN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HDFS</t>
+          <t>YARN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1575,13 +1575,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1594,37 +1594,37 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B_ANAL_MODEL</t>
+          <t>B_HDFS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>분석모델</t>
+          <t>HDFS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B_ANALYTICS</t>
+          <t>B_HADOOP</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>연회색</t>
+          <t>흰색</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1639,31 +1639,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B_MODELER_BOX</t>
+          <t>B_STAGING</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modeler</t>
+          <t>Staging</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B_ANALYTICS</t>
+          <t>B_STORAGE</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>연회색</t>
+          <t>흰색</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1672,46 +1672,1021 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>B_LAKE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B_STORAGE</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B_MART</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mart</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B_STORAGE</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>45</v>
+      </c>
+      <c r="F29" t="n">
+        <v>50</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B_SQOOP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sqoop</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B_PROCESSING</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>45</v>
+      </c>
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B_HIVE</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hive</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B_PROCESSING</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>45</v>
+      </c>
+      <c r="F31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B_SPARK</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Spark</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B_PROCESSING</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>45</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B_ANAL_MODEL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>분석모델</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B_ANALYTICS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B_MODELER_IN</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Modeler</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B_ANALYTICS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" t="n">
+        <v>22</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>B_K8S</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Kubernetes</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>B_ANALYTICS</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D35" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
-        <v>77</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E35" t="n">
+        <v>46</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B_META</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Meta 관리</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B_ANALYTICS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>56</v>
+      </c>
+      <c r="F36" t="n">
+        <v>42</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B_BATCH_M</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Batch</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B_ANAL_MODEL</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>40</v>
+      </c>
+      <c r="F37" t="n">
+        <v>55</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B_ML</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B_ANAL_MODEL</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>40</v>
+      </c>
+      <c r="F38" t="n">
+        <v>55</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B_DL_IN</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B_MODELER_IN</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>25</v>
+      </c>
+      <c r="F39" t="n">
+        <v>34</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B_AUTOML_IN</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Auto ML</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B_MODELER_IN</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="n">
+        <v>34</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B_RP_IN</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RP</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B_MODELER_IN</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>62</v>
+      </c>
+      <c r="F41" t="n">
+        <v>34</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B_AUTODL_IN</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Auto DL</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>B_MODELER_IN</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>62</v>
+      </c>
+      <c r="F42" t="n">
+        <v>34</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B_DB</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DB</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B_META</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>16</v>
+      </c>
+      <c r="F43" t="n">
+        <v>80</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B_TABLE</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Table</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B_META</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>16</v>
+      </c>
+      <c r="F44" t="n">
+        <v>80</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B_FIELD</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B_META</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>16</v>
+      </c>
+      <c r="F45" t="n">
+        <v>80</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B_DL</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B_MODELER</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>22</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B_AUTOML</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Auto ML</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B_MODELER</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>22</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B_RP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RP</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B_MODELER</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>28</v>
+      </c>
+      <c r="F48" t="n">
+        <v>22</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B_AUTODL</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Auto DL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B_MODELER</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28</v>
+      </c>
+      <c r="F49" t="n">
+        <v>22</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B_MODULE_MGT</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>분석모듈관리</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B_MODELER</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>52</v>
+      </c>
+      <c r="F50" t="n">
+        <v>46</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>연회색</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B_PYTHON</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B_MODULE_MGT</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
         <v>20</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>흰색</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>회색</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>10</v>
+      <c r="F51" t="n">
+        <v>76</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B_RPY</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>R/Py</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B_MODULE_MGT</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>20</v>
+      </c>
+      <c r="F52" t="n">
+        <v>76</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B_RLIB</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>R Lib</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B_MODULE_MGT</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>20</v>
+      </c>
+      <c r="F53" t="n">
+        <v>76</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>흰색</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>회색</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +2700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,856 +2747,6 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>타입</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C_JDBC</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>JDBC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>B_DATA_INPUT</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C_BATCH</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Batch</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>B_DATA_INPUT</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C_BIGDATA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Big Data</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>B_DATA_INPUT</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C_STAGING</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Staging</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>B_HADOOP_TOP</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>65</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C_LAKE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lake</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>B_HADOOP_TOP</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>65</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C_MART</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mart</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>B_HADOOP_TOP</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>65</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C_SQOOP</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sqoop</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>B_HADOOP_MID</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>65</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C_HIVE</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hive</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>B_HADOOP_MID</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>65</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C_SPARK</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Spark</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>B_HADOOP_MID</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>65</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C_BATCH_M</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Batch</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>B_ANAL_MODEL</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F11" t="n">
-        <v>60</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C_ML</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>B_ANAL_MODEL</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25</v>
-      </c>
-      <c r="F12" t="n">
-        <v>60</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>C_DL</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>B_MODELER_BOX</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>35</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>C_AUTO_ML</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Auto ML</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>B_MODELER_BOX</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25</v>
-      </c>
-      <c r="F14" t="n">
-        <v>35</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>C_RP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>B_MODELER_BOX</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>62</v>
-      </c>
-      <c r="F15" t="n">
-        <v>35</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C_AUTO_DL</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Auto DL</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>B_MODELER_BOX</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>62</v>
-      </c>
-      <c r="F16" t="n">
-        <v>35</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>C_META_DB</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DB</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>B_META</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25</v>
-      </c>
-      <c r="F17" t="n">
-        <v>68</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>C_META_TBL</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>B_META</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>25</v>
-      </c>
-      <c r="F18" t="n">
-        <v>68</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>C_META_FLD</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Field</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>B_META</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25</v>
-      </c>
-      <c r="F19" t="n">
-        <v>68</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>C_PY_LIB</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>B_MODULE</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>25</v>
-      </c>
-      <c r="F20" t="n">
-        <v>68</v>
-      </c>
-      <c r="G20" t="n">
-        <v>9</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>C_R_REPO</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>R/Py</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>B_MODULE</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>25</v>
-      </c>
-      <c r="F21" t="n">
-        <v>68</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>C_R_LIB</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>R Lib</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>B_MODULE</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25</v>
-      </c>
-      <c r="F22" t="n">
-        <v>68</v>
-      </c>
-      <c r="G22" t="n">
-        <v>9</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>C_DL2</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DL</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>B_MODELER</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>25</v>
-      </c>
-      <c r="F23" t="n">
-        <v>35</v>
-      </c>
-      <c r="G23" t="n">
-        <v>9</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>C_AUTO_ML2</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Auto ML</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>B_MODELER</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>25</v>
-      </c>
-      <c r="F24" t="n">
-        <v>35</v>
-      </c>
-      <c r="G24" t="n">
-        <v>9</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>C_RP2</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>B_MODELER</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>62</v>
-      </c>
-      <c r="F25" t="n">
-        <v>35</v>
-      </c>
-      <c r="G25" t="n">
-        <v>9</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>단일박스</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C_AUTO_DL2</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Auto DL</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>B_MODELER</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>62</v>
-      </c>
-      <c r="F26" t="n">
-        <v>35</v>
-      </c>
-      <c r="G26" t="n">
-        <v>9</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>단일박스</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2822,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B_INTERFACE</t>
+          <t>B_DATA_COLLECT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B_DATALAKE</t>
+          <t>B_STORAGE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2720,7 +2845,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B_DATALAKE</t>
+          <t>B_PROCESSING</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2743,7 +2868,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B_ANALYTICS</t>
+          <t>B_K8S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
